--- a/classfiers/bloated/welm/smote/bloated_welm_tanh_smote_results.xlsx
+++ b/classfiers/bloated/welm/smote/bloated_welm_tanh_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5477272727272727</v>
+        <v>0.5920398009950248</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9903381642512077</v>
+        <v>0.3080808080808081</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6732348111658456</v>
+        <v>0.4265734265734266</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6400136841450519</v>
+        <v>0.6539289958407606</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6977272727272728</v>
+        <v>0.5386533665835411</v>
       </c>
       <c r="C3" t="n">
-        <v>0.874439461883408</v>
+        <v>0.9895833333333334</v>
       </c>
       <c r="D3" t="n">
-        <v>0.745697896749522</v>
+        <v>0.6725663716814159</v>
       </c>
       <c r="E3" t="n">
-        <v>0.773521935897171</v>
+        <v>0.814792663476874</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.759090909090909</v>
+        <v>0.5985037406483791</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9631336405529954</v>
+        <v>0.3299492385786802</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7977099236641221</v>
+        <v>0.4467353951890034</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8964993490525098</v>
+        <v>0.5520180153279586</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6879271070615034</v>
+        <v>0.6159600997506235</v>
       </c>
       <c r="C5" t="n">
-        <v>0.995575221238938</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7666098807495743</v>
+        <v>0.4379562043795621</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8143254809090531</v>
+        <v>0.5861073792108275</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5740318906605922</v>
+        <v>0.456359102244389</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7073552425665103</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.619718309859155</v>
+        <v>0.5382513661202186</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.65330089045351</v>
+        <v>0.5603032220443915</v>
       </c>
       <c r="C7" t="n">
-        <v>0.96469729758531</v>
+        <v>0.3861287366046249</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7381215509791148</v>
+        <v>0.3967662795646816</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7488157519725882</v>
+        <v>0.6290196839953278</v>
       </c>
     </row>
   </sheetData>
